--- a/src/BachelorThesis.2NF.DB/2NF_popis_vyznam_tabulek.xlsx
+++ b/src/BachelorThesis.2NF.DB/2NF_popis_vyznam_tabulek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\DVGithub\BachelorThesis\src\BachelorThesis.2NF.DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1342C3A-0877-43FD-89BC-1A88080820DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747791D8-4D53-4D9C-84DA-382D57531AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="137">
   <si>
     <t>Sloupec</t>
   </si>
@@ -180,21 +180,9 @@
     <t>Vlastník</t>
   </si>
   <si>
-    <t>Křestní jméno vlastníka</t>
-  </si>
-  <si>
-    <t>Příjmení vlastníka</t>
-  </si>
-  <si>
     <t>Prodejce</t>
   </si>
   <si>
-    <t>Křestní jméno prodejce, je-li to osoba</t>
-  </si>
-  <si>
-    <t>Příjmení prodejce, je-li to osoba</t>
-  </si>
-  <si>
     <t>ObchodniJmeno</t>
   </si>
   <si>
@@ -382,6 +370,72 @@
   </si>
   <si>
     <t>Cizí klíč do tabulky Vlastnik, aktuální vlastník nemovitosti</t>
+  </si>
+  <si>
+    <t>Osoba</t>
+  </si>
+  <si>
+    <t>IdOsoba</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Osob</t>
+  </si>
+  <si>
+    <t>KontaktEmail</t>
+  </si>
+  <si>
+    <t>KontaktTelefon</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Tefenon</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>UzivatelTelefon</t>
+  </si>
+  <si>
+    <t>IdKontaktTelefon</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky KontaktTelefon</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Uzivatel</t>
+  </si>
+  <si>
+    <t>UzivatelEmail</t>
+  </si>
+  <si>
+    <t>IdKontaktEmail</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky KontaktEmail</t>
+  </si>
+  <si>
+    <t>VlastnikTelefon</t>
+  </si>
+  <si>
+    <t>VlastnikEmail</t>
+  </si>
+  <si>
+    <t>IdVlastnil</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Vlastnik</t>
+  </si>
+  <si>
+    <t>ProdejceTelefon</t>
+  </si>
+  <si>
+    <t>ProdejceEmail</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Prodejce</t>
   </si>
 </sst>
 </file>
@@ -414,7 +468,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -437,11 +491,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,6 +561,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73:F74"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -980,7 +1080,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="11" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1030,10 +1130,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
@@ -1045,15 +1145,15 @@
         <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1062,78 +1162,68 @@
         <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>21</v>
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>11</v>
@@ -1145,165 +1235,153 @@
         <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>47</v>
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F26" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>51</v>
+      <c r="A28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="8" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>11</v>
@@ -1315,1045 +1393,1003 @@
         <v>11</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="9" t="s">
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A31" s="8" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A32" s="8" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="8" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="6" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F37" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="8" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>55</v>
+      <c r="A39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>58</v>
+      <c r="A40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="A41" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>62</v>
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A43" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>42</v>
+      <c r="A43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>44</v>
+      <c r="A44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A45" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A46" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>49</v>
+      <c r="A46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A47" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A48" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>5</v>
+      <c r="A48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A50" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="43" x14ac:dyDescent="0.5">
-      <c r="A51" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A52" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-    </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A53" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>5</v>
+      <c r="A53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A54" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>12</v>
+      <c r="A54" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A55" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="A55" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A57" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="A57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A59" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A60" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B60" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A59" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A61" s="4" t="s">
-        <v>72</v>
+      <c r="A61" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A63" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="A63" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A64" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>5</v>
+      <c r="A64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A65" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A66" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A67" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="9" t="s">
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A66" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A67" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A68" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A69" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-    </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A70" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>5</v>
+      <c r="A70" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A72" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A73" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A74" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>118</v>
+      <c r="A72" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A76" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A77" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A78" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>91</v>
+      <c r="A78" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="A79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="43" x14ac:dyDescent="0.5">
+      <c r="A81" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A82" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A83" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A81" s="8" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A84" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="9" t="s">
+      <c r="B84" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A82" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A83" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A84" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A85" s="4" t="s">
-        <v>104</v>
+      <c r="A85" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>11</v>
@@ -2364,42 +2400,611 @@
       <c r="E85" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>105</v>
+      <c r="F85" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A87" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A88" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A89" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A90" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A92" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A93" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A94" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A95" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A96" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A97" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A98" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A99" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A100" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A101" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A102" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A103" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A104" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A105" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A106" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A107" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A108" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A109" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>106</v>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A110" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A111" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A112" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A113" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A114" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A115" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A116" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A79:F79"/>
+  <mergeCells count="19">
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A109:F109"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A93:F93"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/BachelorThesis.2NF.DB/2NF_popis_vyznam_tabulek.xlsx
+++ b/src/BachelorThesis.2NF.DB/2NF_popis_vyznam_tabulek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\DVGithub\BachelorThesis\src\BachelorThesis.2NF.DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE52033C-1545-448E-A275-35EF482B344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E434C-2D7E-4D08-9CFC-7E746577EE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="142">
   <si>
     <t>Sloupec</t>
   </si>
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t>Cizí klíč do tabulky Zeme</t>
+  </si>
+  <si>
+    <t>IdUlice</t>
+  </si>
+  <si>
+    <t>Cizí klíč do tabulky Ulice</t>
   </si>
 </sst>
 </file>
@@ -862,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1440,10 +1446,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>11</v>
@@ -1455,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
@@ -1519,133 +1525,171 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
+      <c r="A38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>11</v>
@@ -1654,15 +1698,15 @@
         <v>11</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1712,10 +1756,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>11</v>
@@ -1727,18 +1771,18 @@
         <v>10</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A51" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
+      <c r="A51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
@@ -1782,10 +1826,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>11</v>
@@ -1794,111 +1838,111 @@
         <v>11</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A55" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="A55" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>5</v>
+      <c r="A56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A58" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="A58" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A59" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>103</v>
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>11</v>
@@ -1907,15 +1951,15 @@
         <v>10</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>11</v>
@@ -1927,38 +1971,38 @@
         <v>11</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A62" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="A62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A63" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
@@ -2002,7 +2046,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>9</v>
@@ -2017,62 +2061,62 @@
         <v>11</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A67" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="A67" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A69" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="B69" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A69" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>9</v>
@@ -2087,172 +2131,172 @@
         <v>11</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A71" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
+      <c r="A71" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F73" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A73" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A75" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>103</v>
+      <c r="A75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A76" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="A76" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A78" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F78" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>9</v>
@@ -2267,102 +2311,102 @@
         <v>11</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A81" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="A81" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A83" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A85" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>114</v>
+      <c r="A85" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A86" s="10" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -2411,274 +2455,274 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A89" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B89" s="8" t="s">
+      <c r="A89" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A90" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A91" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A90" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A91" s="6" t="s">
+      <c r="C91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A92" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A93" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A93" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A94" s="8" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A95" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>48</v>
+      <c r="A95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A96" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="A96" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A98" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B99" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F99" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A98" s="8" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="9" t="s">
+      <c r="B100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A99" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A100" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A101" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>124</v>
+      <c r="A101" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A102" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
+      <c r="A102" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A103" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
@@ -2722,7 +2766,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A106" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>9</v>
@@ -2737,160 +2781,160 @@
         <v>11</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A107" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A109" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A110" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="5" t="s">
+      <c r="B110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A109" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A110" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A112" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
+      <c r="A111" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="43" x14ac:dyDescent="0.5">
+      <c r="A112" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A114" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B114" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D114" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F114" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A114" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A115" s="8" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="43" x14ac:dyDescent="0.5">
-      <c r="A116" s="8" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A116" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>14</v>
@@ -2902,15 +2946,15 @@
         <v>11</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A117" s="11" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -2959,11 +3003,11 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A120" s="4" t="s">
-        <v>56</v>
+      <c r="A120" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>11</v>
@@ -2972,218 +3016,228 @@
         <v>11</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A121" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
+      <c r="A121" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A123" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A124" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A125" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A126" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F126" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A123" s="8" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A127" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="9" t="s">
+      <c r="B127" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A124" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A125" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A126" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A127" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A128" s="4" t="s">
-        <v>60</v>
+      <c r="A128" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A129" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A130" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>5</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A129" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A130" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A131" s="8" t="s">
-        <v>8</v>
+      <c r="A131" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A132" s="8" t="s">
-        <v>64</v>
+      <c r="A132" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>11</v>
@@ -3195,15 +3249,15 @@
         <v>11</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A133" s="8" t="s">
-        <v>51</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A133" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>11</v>
@@ -3214,16 +3268,16 @@
       <c r="E133" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A134" s="8" t="s">
-        <v>50</v>
+      <c r="F133" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A134" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>11</v>
@@ -3234,16 +3288,16 @@
       <c r="E134" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="9" t="s">
-        <v>100</v>
+      <c r="F134" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A135" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>11</v>
@@ -3255,15 +3309,15 @@
         <v>11</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A136" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>11</v>
@@ -3275,15 +3329,15 @@
         <v>11</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A137" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>11</v>
@@ -3295,145 +3349,145 @@
         <v>11</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A138" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="A138" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A139" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>73</v>
+      <c r="A139" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A140" s="4" t="s">
-        <v>74</v>
+      <c r="A140" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A141" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B141" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A142" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A143" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A144" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A142" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A143" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A144" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="C144" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A145" s="4" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>11</v>
@@ -3445,92 +3499,12 @@
         <v>11</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A146" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A147" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A148" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A149" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="5" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A113:F113"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A9:F9"/>
@@ -3538,25 +3512,25 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A43:F43"/>
     <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A51:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/BachelorThesis.2NF.DB/2NF_popis_vyznam_tabulek.xlsx
+++ b/src/BachelorThesis.2NF.DB/2NF_popis_vyznam_tabulek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\DVGithub\BachelorThesis\src\BachelorThesis.2NF.DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E434C-2D7E-4D08-9CFC-7E746577EE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F903929-4CD7-4170-A2C5-E5A7391BA668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,10 +573,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,7 +587,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -870,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -885,14 +884,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -955,14 +954,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
@@ -1025,14 +1024,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
@@ -1095,14 +1094,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
@@ -1285,19 +1284,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -1305,19 +1304,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -1355,19 +1354,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -1375,19 +1374,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -1395,14 +1394,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
@@ -1455,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>11</v>
@@ -1475,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>11</v>
@@ -1545,14 +1544,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
@@ -1775,14 +1774,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
@@ -1905,14 +1904,14 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
@@ -1995,14 +1994,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
@@ -2065,14 +2064,14 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A68" s="6" t="s">
@@ -2155,14 +2154,14 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A73" s="1" t="s">
@@ -2245,14 +2244,14 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A78" s="6" t="s">
@@ -2335,14 +2334,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A83" s="6" t="s">
@@ -2405,14 +2404,14 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A87" s="6" t="s">
@@ -2515,14 +2514,14 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A93" s="6" t="s">
@@ -2625,14 +2624,14 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A99" s="1" t="s">
@@ -2715,14 +2714,14 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
@@ -2793,14 +2792,14 @@
       <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A109" s="6" t="s">
@@ -2862,7 +2861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="43" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:6" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A112" s="8" t="s">
         <v>54</v>
       </c>
@@ -2883,14 +2882,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A114" s="6" t="s">
@@ -2953,14 +2952,14 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A118" s="6" t="s">
@@ -3103,14 +3102,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A126" s="6" t="s">
@@ -3353,14 +3352,14 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A139" s="6" t="s">
@@ -3504,6 +3503,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
@@ -3520,17 +3530,6 @@
     <mergeCell ref="A77:F77"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A47:F47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
